--- a/EBanking/src/com/ebanking/results/Res_Role.xlsx
+++ b/EBanking/src/com/ebanking/results/Res_Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>RoleName</t>
   </si>
@@ -43,16 +43,7 @@
     <t>ClerkCitiBnk</t>
   </si>
   <si>
-    <t>New Role with id 2308 Created Sucessfully</t>
-  </si>
-  <si>
-    <t>New Role with id 2309 Created Sucessfully</t>
-  </si>
-  <si>
     <t>Role Already existed</t>
-  </si>
-  <si>
-    <t>New Role with id 2310 Created Sucessfully</t>
   </si>
 </sst>
 </file>
@@ -452,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
